--- a/biology/Histoire de la zoologie et de la botanique/Jean_Rinjard/Jean_Rinjard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Rinjard/Jean_Rinjard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Rinjard, né le 24 juin 1921 à Maisons-Alfort et mort le 3 novembre 1995, est un vétérinaire de zoo français.
 Vétérinaire formé à l'École nationale vétérinaire d'Alfort (1945), il entre en 1947 au Muséum national d'histoire naturelle, où il effectue sa carrière au sein de la chaire d'éthologie des animaux sauvages, puis d'éthologie et conservation des espèces animales, comme vétérinaire du Parc zoologique de Vincennes.
